--- a/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_发现组.xlsx
+++ b/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.1.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="版本3.1.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -257,12 +252,36 @@
     <t>房东PC集中式公寓分页显示第二页错乱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基/余星赞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -928,14 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="20" customWidth="1"/>
@@ -949,7 +968,7 @@
     <col min="10" max="10" width="23.875" style="19" customWidth="1"/>
     <col min="11" max="12" width="11.875" style="19" customWidth="1"/>
     <col min="13" max="13" width="9" style="20"/>
-    <col min="14" max="14" width="11.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="20" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="20" customWidth="1"/>
     <col min="16" max="16" width="12.125" style="23" customWidth="1"/>
     <col min="17" max="18" width="17.625" style="23" customWidth="1"/>
@@ -958,7 +977,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="33">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1047,10 +1066,18 @@
         <v>32</v>
       </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -1059,7 +1086,7 @@
       </c>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1089,17 +1116,25 @@
         <v>38</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1129,17 +1164,25 @@
         <v>39</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1169,17 +1212,25 @@
         <v>41</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1209,17 +1260,25 @@
         <v>43</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="L6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="32"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1249,7 +1308,9 @@
         <v>46</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="14"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
@@ -1259,7 +1320,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -1289,17 +1350,25 @@
         <v>43</v>
       </c>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="L8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1329,17 +1398,25 @@
         <v>43</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="L9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="49.5">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1369,10 +1446,18 @@
         <v>57</v>
       </c>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1381,7 +1466,7 @@
       </c>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1403,7 +1488,9 @@
         <v>52</v>
       </c>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
@@ -1413,7 +1500,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1443,17 +1530,25 @@
         <v>32</v>
       </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="L12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="33">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1483,17 +1578,25 @@
         <v>60</v>
       </c>
       <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="L13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1523,17 +1626,25 @@
         <v>59</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1563,17 +1674,25 @@
         <v>43</v>
       </c>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="L15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42493</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A16" s="21"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12"/>
@@ -1595,7 +1714,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A17" s="21"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -1617,7 +1736,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A18" s="21"/>
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
@@ -1639,7 +1758,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
@@ -1661,7 +1780,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -1683,7 +1802,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -1705,7 +1824,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -1727,7 +1846,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1749,7 +1868,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -1771,7 +1890,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -1793,7 +1912,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -1815,7 +1934,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -1837,7 +1956,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -1859,7 +1978,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -1881,7 +2000,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -1903,7 +2022,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -1925,7 +2044,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -1947,7 +2066,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -1969,7 +2088,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -1991,7 +2110,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -2013,7 +2132,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -2035,7 +2154,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -2057,7 +2176,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -2079,7 +2198,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -2101,7 +2220,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -2123,7 +2242,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -2145,7 +2264,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -2167,7 +2286,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -2189,7 +2308,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -2211,7 +2330,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -2233,7 +2352,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -2255,7 +2374,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -2277,7 +2396,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -2299,7 +2418,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -2321,7 +2440,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
@@ -2343,7 +2462,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12"/>
@@ -2365,7 +2484,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="8"/>
       <c r="C52" s="12"/>
@@ -2387,7 +2506,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="8"/>
       <c r="C53" s="12"/>
@@ -2409,7 +2528,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="8"/>
       <c r="C54" s="12"/>
@@ -2431,7 +2550,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="8"/>
       <c r="C55" s="12"/>
@@ -2453,7 +2572,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12"/>
@@ -2475,7 +2594,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="8"/>
       <c r="C57" s="12"/>
@@ -2497,7 +2616,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="8"/>
       <c r="C58" s="12"/>
@@ -2519,7 +2638,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="8"/>
       <c r="C59" s="12"/>
@@ -2541,7 +2660,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A60" s="9"/>
       <c r="B60" s="17"/>
       <c r="C60" s="9"/>
@@ -2563,7 +2682,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="9"/>
       <c r="B61" s="17"/>
       <c r="C61" s="9"/>
@@ -2585,7 +2704,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2606,7 +2725,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2627,7 +2746,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2648,7 +2767,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2669,7 +2788,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2690,7 +2809,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2711,7 +2830,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2732,7 +2851,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2753,7 +2872,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2774,7 +2893,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2795,7 +2914,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2816,7 +2935,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2837,7 +2956,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2858,7 +2977,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2879,7 +2998,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -2900,7 +3019,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -2921,7 +3040,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -2942,7 +3061,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -2963,7 +3082,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -2984,7 +3103,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3005,7 +3124,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3026,7 +3145,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3047,7 +3166,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3068,7 +3187,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3089,7 +3208,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3110,7 +3229,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3131,7 +3250,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3152,7 +3271,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3173,7 +3292,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3194,7 +3313,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3215,7 +3334,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3236,7 +3355,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3257,7 +3376,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3278,7 +3397,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3299,7 +3418,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3320,7 +3439,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3341,7 +3460,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3362,7 +3481,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3383,7 +3502,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3404,7 +3523,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3425,7 +3544,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3446,7 +3565,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3467,7 +3586,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3488,7 +3607,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3509,7 +3628,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3530,7 +3649,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3551,7 +3670,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3572,7 +3691,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3593,7 +3712,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3614,7 +3733,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3635,7 +3754,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3656,7 +3775,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3677,7 +3796,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3698,7 +3817,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3719,7 +3838,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3740,7 +3859,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3761,7 +3880,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3782,7 +3901,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3803,7 +3922,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3824,7 +3943,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3845,7 +3964,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3866,7 +3985,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3887,7 +4006,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3908,7 +4027,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -3929,7 +4048,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -3950,7 +4069,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -3971,7 +4090,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -3992,7 +4111,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4013,7 +4132,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4034,7 +4153,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4055,7 +4174,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4076,7 +4195,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4097,7 +4216,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4118,7 +4237,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4139,7 +4258,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4160,7 +4279,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4181,7 +4300,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4202,7 +4321,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4223,7 +4342,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4244,7 +4363,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4265,7 +4384,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4286,7 +4405,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4307,7 +4426,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4328,7 +4447,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4349,7 +4468,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4370,7 +4489,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4391,7 +4510,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4412,7 +4531,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4433,7 +4552,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4454,7 +4573,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -4475,7 +4594,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -4496,7 +4615,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -4517,7 +4636,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -4538,7 +4657,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -4559,7 +4678,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -4580,7 +4699,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -4601,7 +4720,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -4622,7 +4741,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -4643,7 +4762,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -4664,7 +4783,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -4685,7 +4804,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -4706,7 +4825,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -4727,7 +4846,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -4748,7 +4867,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -4769,7 +4888,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -4790,7 +4909,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -4811,7 +4930,7 @@
       <c r="R167" s="7"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -4832,7 +4951,7 @@
       <c r="R168" s="7"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -4853,7 +4972,7 @@
       <c r="R169" s="7"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -4874,7 +4993,7 @@
       <c r="R170" s="7"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -4895,7 +5014,7 @@
       <c r="R171" s="7"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -4916,7 +5035,7 @@
       <c r="R172" s="7"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -4937,7 +5056,7 @@
       <c r="R173" s="7"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -4958,7 +5077,7 @@
       <c r="R174" s="7"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -4979,7 +5098,7 @@
       <c r="R175" s="7"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -5000,7 +5119,7 @@
       <c r="R176" s="7"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -5021,7 +5140,7 @@
       <c r="R177" s="7"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -5042,7 +5161,7 @@
       <c r="R178" s="7"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -5063,7 +5182,7 @@
       <c r="R179" s="7"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -5084,7 +5203,7 @@
       <c r="R180" s="7"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -5105,7 +5224,7 @@
       <c r="R181" s="7"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -5126,7 +5245,7 @@
       <c r="R182" s="7"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -5144,7 +5263,7 @@
       <c r="O183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -5162,7 +5281,7 @@
       <c r="O184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -5180,7 +5299,7 @@
       <c r="O185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -5198,7 +5317,7 @@
       <c r="O186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -5216,7 +5335,7 @@
       <c r="O187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -5234,7 +5353,7 @@
       <c r="O188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -5252,7 +5371,7 @@
       <c r="O189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -5270,7 +5389,7 @@
       <c r="O190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -5288,7 +5407,7 @@
       <c r="O191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -5306,7 +5425,7 @@
       <c r="O192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -5324,7 +5443,7 @@
       <c r="O193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -5342,7 +5461,7 @@
       <c r="O194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -5360,7 +5479,7 @@
       <c r="O195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -5378,7 +5497,7 @@
       <c r="O196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -5396,7 +5515,7 @@
       <c r="O197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -5414,7 +5533,7 @@
       <c r="O198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -5432,7 +5551,7 @@
       <c r="O199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -5450,7 +5569,7 @@
       <c r="O200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -5468,7 +5587,7 @@
       <c r="O201" s="4"/>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -5486,7 +5605,7 @@
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -5504,7 +5623,7 @@
       <c r="O203" s="4"/>
       <c r="S203" s="4"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -5522,7 +5641,7 @@
       <c r="O204" s="4"/>
       <c r="S204" s="4"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -5540,7 +5659,7 @@
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -5558,7 +5677,7 @@
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -5576,7 +5695,7 @@
       <c r="O207" s="4"/>
       <c r="S207" s="4"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19">
       <c r="A208" s="7"/>
       <c r="B208" s="4"/>
       <c r="C208" s="7"/>
@@ -5594,7 +5713,7 @@
       <c r="O208" s="4"/>
       <c r="S208" s="4"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19">
       <c r="A209" s="7"/>
       <c r="B209" s="4"/>
       <c r="C209" s="7"/>
@@ -5612,7 +5731,7 @@
       <c r="O209" s="4"/>
       <c r="S209" s="4"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19">
       <c r="A210" s="7"/>
       <c r="B210" s="4"/>
       <c r="C210" s="7"/>
@@ -5630,7 +5749,7 @@
       <c r="O210" s="4"/>
       <c r="S210" s="4"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19">
       <c r="A211" s="7"/>
       <c r="B211" s="4"/>
       <c r="C211" s="7"/>
@@ -5648,7 +5767,7 @@
       <c r="O211" s="4"/>
       <c r="S211" s="4"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19">
       <c r="A212" s="7"/>
       <c r="B212" s="4"/>
       <c r="C212" s="7"/>
@@ -5666,7 +5785,7 @@
       <c r="O212" s="4"/>
       <c r="S212" s="4"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19">
       <c r="A213" s="7"/>
       <c r="B213" s="4"/>
       <c r="C213" s="7"/>
@@ -5684,7 +5803,7 @@
       <c r="O213" s="4"/>
       <c r="S213" s="4"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19">
       <c r="A214" s="7"/>
       <c r="B214" s="4"/>
       <c r="C214" s="7"/>
@@ -5702,7 +5821,7 @@
       <c r="O214" s="4"/>
       <c r="S214" s="4"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19">
       <c r="A215" s="7"/>
       <c r="B215" s="4"/>
       <c r="C215" s="7"/>
@@ -5720,7 +5839,7 @@
       <c r="O215" s="4"/>
       <c r="S215" s="4"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19">
       <c r="A216" s="7"/>
       <c r="B216" s="4"/>
       <c r="C216" s="7"/>
@@ -5738,7 +5857,7 @@
       <c r="O216" s="4"/>
       <c r="S216" s="4"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19">
       <c r="A217" s="7"/>
       <c r="B217" s="4"/>
       <c r="C217" s="7"/>
@@ -5764,14 +5883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5782,7 +5901,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -5808,7 +5927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -5818,7 +5937,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5828,7 +5947,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -5838,7 +5957,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5848,7 +5967,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5858,7 +5977,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5868,7 +5987,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5878,7 +5997,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5888,7 +6007,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5898,7 +6017,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5908,7 +6027,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5918,7 +6037,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5928,7 +6047,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5938,7 +6057,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5948,7 +6067,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5958,7 +6077,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5968,7 +6087,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5978,7 +6097,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>

--- a/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_发现组.xlsx
+++ b/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -269,19 +269,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
+    <t>李敖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>李敖</t>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -947,14 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="20" customWidth="1"/>
@@ -977,7 +977,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="33">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>42493</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>42493</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -1134,7 +1134,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>42493</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1182,7 +1182,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>42493</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -1230,7 +1230,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>42493</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1278,7 +1278,7 @@
       <c r="S6" s="32"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1309,18 +1309,24 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42494</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>42493</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1368,7 +1374,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="33">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>42493</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -1416,7 +1422,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="49.5">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>42493</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1466,7 +1472,7 @@
       </c>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1491,16 +1497,22 @@
       <c r="L11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42494</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>42493</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -1548,7 +1560,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="33">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1588,7 +1600,7 @@
         <v>42493</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -1596,7 +1608,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>42493</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -1644,7 +1656,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>42493</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -1692,7 +1704,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="30"/>
       <c r="C16" s="12"/>
@@ -1714,7 +1726,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -1736,7 +1748,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
@@ -1758,7 +1770,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
@@ -1780,7 +1792,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -1802,7 +1814,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -1824,7 +1836,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -1846,7 +1858,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1868,7 +1880,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -1890,7 +1902,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -1912,7 +1924,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -1934,7 +1946,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -1956,7 +1968,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -1978,7 +1990,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -2000,7 +2012,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -2022,7 +2034,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -2044,7 +2056,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -2066,7 +2078,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -2088,7 +2100,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -2110,7 +2122,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -2132,7 +2144,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -2154,7 +2166,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -2176,7 +2188,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -2198,7 +2210,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -2220,7 +2232,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -2242,7 +2254,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -2264,7 +2276,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -2286,7 +2298,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -2308,7 +2320,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -2330,7 +2342,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -2352,7 +2364,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -2374,7 +2386,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -2396,7 +2408,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -2418,7 +2430,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -2440,7 +2452,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
@@ -2462,7 +2474,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12"/>
@@ -2484,7 +2496,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="8"/>
       <c r="C52" s="12"/>
@@ -2506,7 +2518,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="8"/>
       <c r="C53" s="12"/>
@@ -2528,7 +2540,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="8"/>
       <c r="C54" s="12"/>
@@ -2550,7 +2562,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="8"/>
       <c r="C55" s="12"/>
@@ -2572,7 +2584,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12"/>
@@ -2594,7 +2606,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="8"/>
       <c r="C57" s="12"/>
@@ -2616,7 +2628,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="8"/>
       <c r="C58" s="12"/>
@@ -2638,7 +2650,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="8"/>
       <c r="C59" s="12"/>
@@ -2660,7 +2672,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="17"/>
       <c r="C60" s="9"/>
@@ -2682,7 +2694,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="17"/>
       <c r="C61" s="9"/>
@@ -2704,7 +2716,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2725,7 +2737,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2746,7 +2758,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2767,7 +2779,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2788,7 +2800,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2809,7 +2821,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2830,7 +2842,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2851,7 +2863,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2872,7 +2884,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2893,7 +2905,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2914,7 +2926,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2935,7 +2947,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2956,7 +2968,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2977,7 +2989,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2998,7 +3010,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3019,7 +3031,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3040,7 +3052,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3061,7 +3073,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3082,7 +3094,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3103,7 +3115,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3124,7 +3136,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3145,7 +3157,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3166,7 +3178,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3187,7 +3199,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3208,7 +3220,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3229,7 +3241,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3250,7 +3262,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3271,7 +3283,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3292,7 +3304,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3313,7 +3325,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3334,7 +3346,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3355,7 +3367,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3376,7 +3388,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3397,7 +3409,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3418,7 +3430,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3439,7 +3451,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3460,7 +3472,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3481,7 +3493,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3502,7 +3514,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3523,7 +3535,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3544,7 +3556,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3565,7 +3577,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3586,7 +3598,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3607,7 +3619,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3628,7 +3640,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3649,7 +3661,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3670,7 +3682,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3691,7 +3703,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3712,7 +3724,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3733,7 +3745,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3754,7 +3766,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3775,7 +3787,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3796,7 +3808,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3817,7 +3829,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3838,7 +3850,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3859,7 +3871,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3880,7 +3892,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5">
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3901,7 +3913,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5">
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3922,7 +3934,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5">
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3943,7 +3955,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5">
+    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3964,7 +3976,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5">
+    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3985,7 +3997,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4006,7 +4018,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4027,7 +4039,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4048,7 +4060,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4069,7 +4081,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4090,7 +4102,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4111,7 +4123,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4132,7 +4144,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4153,7 +4165,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4174,7 +4186,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4195,7 +4207,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4216,7 +4228,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4237,7 +4249,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4258,7 +4270,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4279,7 +4291,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4300,7 +4312,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4321,7 +4333,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4342,7 +4354,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4363,7 +4375,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4384,7 +4396,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4405,7 +4417,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4426,7 +4438,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4447,7 +4459,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4468,7 +4480,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4489,7 +4501,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4510,7 +4522,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4531,7 +4543,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4552,7 +4564,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4573,7 +4585,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -4594,7 +4606,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -4615,7 +4627,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -4636,7 +4648,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -4657,7 +4669,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -4678,7 +4690,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -4699,7 +4711,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -4720,7 +4732,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -4741,7 +4753,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -4762,7 +4774,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -4783,7 +4795,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -4804,7 +4816,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -4825,7 +4837,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -4846,7 +4858,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -4867,7 +4879,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -4888,7 +4900,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -4909,7 +4921,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -4930,7 +4942,7 @@
       <c r="R167" s="7"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -4951,7 +4963,7 @@
       <c r="R168" s="7"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -4972,7 +4984,7 @@
       <c r="R169" s="7"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -4993,7 +5005,7 @@
       <c r="R170" s="7"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -5014,7 +5026,7 @@
       <c r="R171" s="7"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -5035,7 +5047,7 @@
       <c r="R172" s="7"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -5056,7 +5068,7 @@
       <c r="R173" s="7"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -5077,7 +5089,7 @@
       <c r="R174" s="7"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -5098,7 +5110,7 @@
       <c r="R175" s="7"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -5119,7 +5131,7 @@
       <c r="R176" s="7"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -5140,7 +5152,7 @@
       <c r="R177" s="7"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -5161,7 +5173,7 @@
       <c r="R178" s="7"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -5182,7 +5194,7 @@
       <c r="R179" s="7"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -5203,7 +5215,7 @@
       <c r="R180" s="7"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -5224,7 +5236,7 @@
       <c r="R181" s="7"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -5245,7 +5257,7 @@
       <c r="R182" s="7"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -5263,7 +5275,7 @@
       <c r="O183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -5281,7 +5293,7 @@
       <c r="O184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -5299,7 +5311,7 @@
       <c r="O185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -5317,7 +5329,7 @@
       <c r="O186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -5335,7 +5347,7 @@
       <c r="O187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -5353,7 +5365,7 @@
       <c r="O188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -5371,7 +5383,7 @@
       <c r="O189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -5389,7 +5401,7 @@
       <c r="O190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -5407,7 +5419,7 @@
       <c r="O191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -5425,7 +5437,7 @@
       <c r="O192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -5443,7 +5455,7 @@
       <c r="O193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -5461,7 +5473,7 @@
       <c r="O194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -5479,7 +5491,7 @@
       <c r="O195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -5497,7 +5509,7 @@
       <c r="O196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -5515,7 +5527,7 @@
       <c r="O197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -5533,7 +5545,7 @@
       <c r="O198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -5551,7 +5563,7 @@
       <c r="O199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -5569,7 +5581,7 @@
       <c r="O200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -5587,7 +5599,7 @@
       <c r="O201" s="4"/>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -5605,7 +5617,7 @@
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -5623,7 +5635,7 @@
       <c r="O203" s="4"/>
       <c r="S203" s="4"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -5641,7 +5653,7 @@
       <c r="O204" s="4"/>
       <c r="S204" s="4"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -5659,7 +5671,7 @@
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -5677,7 +5689,7 @@
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -5695,7 +5707,7 @@
       <c r="O207" s="4"/>
       <c r="S207" s="4"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
       <c r="B208" s="4"/>
       <c r="C208" s="7"/>
@@ -5713,7 +5725,7 @@
       <c r="O208" s="4"/>
       <c r="S208" s="4"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
       <c r="B209" s="4"/>
       <c r="C209" s="7"/>
@@ -5731,7 +5743,7 @@
       <c r="O209" s="4"/>
       <c r="S209" s="4"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
       <c r="B210" s="4"/>
       <c r="C210" s="7"/>
@@ -5749,7 +5761,7 @@
       <c r="O210" s="4"/>
       <c r="S210" s="4"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
       <c r="B211" s="4"/>
       <c r="C211" s="7"/>
@@ -5767,7 +5779,7 @@
       <c r="O211" s="4"/>
       <c r="S211" s="4"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="7"/>
       <c r="B212" s="4"/>
       <c r="C212" s="7"/>
@@ -5785,7 +5797,7 @@
       <c r="O212" s="4"/>
       <c r="S212" s="4"/>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
       <c r="B213" s="4"/>
       <c r="C213" s="7"/>
@@ -5803,7 +5815,7 @@
       <c r="O213" s="4"/>
       <c r="S213" s="4"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="7"/>
       <c r="B214" s="4"/>
       <c r="C214" s="7"/>
@@ -5821,7 +5833,7 @@
       <c r="O214" s="4"/>
       <c r="S214" s="4"/>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
       <c r="B215" s="4"/>
       <c r="C215" s="7"/>
@@ -5839,7 +5851,7 @@
       <c r="O215" s="4"/>
       <c r="S215" s="4"/>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
       <c r="B216" s="4"/>
       <c r="C216" s="7"/>
@@ -5857,7 +5869,7 @@
       <c r="O216" s="4"/>
       <c r="S216" s="4"/>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
       <c r="B217" s="4"/>
       <c r="C217" s="7"/>
@@ -5883,14 +5895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5901,7 +5913,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -5937,7 +5949,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5947,7 +5959,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -5957,7 +5969,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5967,7 +5979,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5977,7 +5989,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5987,7 +5999,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5997,7 +6009,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -6007,7 +6019,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -6017,7 +6029,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -6027,7 +6039,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -6037,7 +6049,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -6047,7 +6059,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -6057,7 +6069,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -6067,7 +6079,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -6077,7 +6089,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -6087,7 +6099,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -6097,7 +6109,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
